--- a/Gari_Dictionary.xlsx
+++ b/Gari_Dictionary.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" tabRatio="596" xr2:uid="{826C1F26-B24D-4D5C-879E-AB14CC9440BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="TFP" sheetId="1" r:id="rId1"/>
     <sheet name="JAVA_KSH" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Thema</t>
   </si>
@@ -36,10 +36,202 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>teszt</t>
+    <t>exceedingly beautiful</t>
+  </si>
+  <si>
+    <t>rendkívül szép</t>
+  </si>
+  <si>
+    <t>enchaunted</t>
+  </si>
+  <si>
+    <t>elbűvölve</t>
+  </si>
+  <si>
+    <t>gloomy forest</t>
+  </si>
+  <si>
+    <t>komor erdő</t>
+  </si>
+  <si>
+    <t>in the midst</t>
+  </si>
+  <si>
+    <t>középen, közepette</t>
+  </si>
+  <si>
+    <t>in the middle</t>
+  </si>
+  <si>
+    <t>középen</t>
+  </si>
+  <si>
+    <t>beneath</t>
+  </si>
+  <si>
+    <t>alatt, alá</t>
+  </si>
+  <si>
+    <t>branches</t>
+  </si>
+  <si>
+    <t>ágak</t>
+  </si>
+  <si>
+    <t>beneath whose branches</t>
+  </si>
+  <si>
+    <t>v-nek az ágai alatt</t>
+  </si>
+  <si>
+    <t>to splash</t>
+  </si>
+  <si>
+    <t>csobog</t>
+  </si>
+  <si>
+    <t>by the side of sg</t>
+  </si>
+  <si>
+    <t>valami mellé</t>
+  </si>
+  <si>
+    <t>dull</t>
+  </si>
+  <si>
+    <t>unalmas, buta, nehézkes</t>
+  </si>
+  <si>
+    <t>she is boring</t>
+  </si>
+  <si>
+    <t>unatkozik</t>
+  </si>
+  <si>
+    <t>she felt dull</t>
+  </si>
+  <si>
+    <t>unatkozott</t>
+  </si>
+  <si>
+    <t>to divert</t>
+  </si>
+  <si>
+    <t>elterel</t>
+  </si>
+  <si>
+    <t>she divert herself</t>
+  </si>
+  <si>
+    <t>jobb kedvre deríttte magát</t>
+  </si>
+  <si>
+    <t>amusement</t>
+  </si>
+  <si>
+    <t>szórakoztatás, élvezet</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>de, hanem</t>
+  </si>
+  <si>
+    <t>to dissappear</t>
+  </si>
+  <si>
+    <t>eltűnik</t>
+  </si>
+  <si>
+    <t>to lament</t>
+  </si>
+  <si>
+    <t>sirat</t>
+  </si>
+  <si>
+    <t>to weep</t>
+  </si>
+  <si>
+    <t>bőg</t>
+  </si>
+  <si>
+    <t>to melt</t>
+  </si>
+  <si>
+    <t>elérzékenyül</t>
+  </si>
+  <si>
+    <t>to pity</t>
+  </si>
+  <si>
+    <t>megsajnál</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>hely</t>
+  </si>
+  <si>
+    <t>whence</t>
+  </si>
+  <si>
+    <t>honnét</t>
+  </si>
+  <si>
+    <t>to stretch</t>
+  </si>
+  <si>
+    <t>kinyújt</t>
+  </si>
+  <si>
+    <t>thich</t>
+  </si>
+  <si>
+    <t>vastag</t>
+  </si>
+  <si>
+    <t>water-paddler</t>
+  </si>
+  <si>
+    <t>vízievezős</t>
+  </si>
+  <si>
+    <t>to ship</t>
+  </si>
+  <si>
+    <t>csúszik</t>
+  </si>
+  <si>
+    <t>plaything</t>
+  </si>
+  <si>
+    <t>játékszer</t>
+  </si>
+  <si>
+    <t>to fetch</t>
+  </si>
+  <si>
+    <t>értemegy és elhoz</t>
+  </si>
+  <si>
+    <t>to befor me</t>
+  </si>
+  <si>
+    <t>nekem való</t>
+  </si>
+  <si>
+    <t>to chatter</t>
+  </si>
+  <si>
+    <t>csicsereg, kotkodácsol</t>
+  </si>
+  <si>
+    <t>to chat</t>
+  </si>
+  <si>
+    <t>cseverészik, cseveg</t>
   </si>
 </sst>
 </file>
@@ -404,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177E24E0-98C2-4919-A300-73D39A43ABCB}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +627,262 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Gari_Dictionary.xlsx
+++ b/Gari_Dictionary.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="TFP" sheetId="1" r:id="rId1"/>
-    <sheet name="JAVA_KSH" sheetId="3" r:id="rId2"/>
+    <sheet name="java_szavak" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="751">
   <si>
     <t>Thema</t>
   </si>
@@ -232,19 +232,2072 @@
   </si>
   <si>
     <t>cseverészik, cseveg</t>
+  </si>
+  <si>
+    <t>peer</t>
+  </si>
+  <si>
+    <t>társ</t>
+  </si>
+  <si>
+    <t>to quote</t>
+  </si>
+  <si>
+    <t>hivatkozik</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>rendelkező, meghatalmazott</t>
+  </si>
+  <si>
+    <t>to concatenate</t>
+  </si>
+  <si>
+    <t>összefűz</t>
+  </si>
+  <si>
+    <t>to truncate</t>
+  </si>
+  <si>
+    <t>megcsonkít, csonkol</t>
+  </si>
+  <si>
+    <t>single quote</t>
+  </si>
+  <si>
+    <t>idézőjel: '</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>határolójel</t>
+  </si>
+  <si>
+    <t>hyphen, dash</t>
+  </si>
+  <si>
+    <t>kötőjel</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>kényszer, megszorítás</t>
+  </si>
+  <si>
+    <t>instance (for instance)</t>
+  </si>
+  <si>
+    <t>eset, kérelem (például)</t>
+  </si>
+  <si>
+    <t>to validate</t>
+  </si>
+  <si>
+    <t>érvényesít</t>
+  </si>
+  <si>
+    <t>elhoz</t>
+  </si>
+  <si>
+    <t>hit the H</t>
+  </si>
+  <si>
+    <t>üsd le a H billentyűt</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>elavult, ósdi</t>
+  </si>
+  <si>
+    <t>SQL statement</t>
+  </si>
+  <si>
+    <t>SQL parancs</t>
+  </si>
+  <si>
+    <t>You can reference this function</t>
+  </si>
+  <si>
+    <t>Hivatkozhatsz erre a fv-re</t>
+  </si>
+  <si>
+    <t>retrieve</t>
+  </si>
+  <si>
+    <t>invoker</t>
+  </si>
+  <si>
+    <t>lehívó, állj rá</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>kikötés, záradék</t>
+  </si>
+  <si>
+    <t>distinction</t>
+  </si>
+  <si>
+    <t>különbség, megkülönböztetés</t>
+  </si>
+  <si>
+    <t>entirely</t>
+  </si>
+  <si>
+    <t>teljesen</t>
+  </si>
+  <si>
+    <t>to operate</t>
+  </si>
+  <si>
+    <t>üzemel</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>mélység</t>
+  </si>
+  <si>
+    <t>redirected</t>
+  </si>
+  <si>
+    <t>átirányítva</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>Session Initiation Protocoll</t>
+  </si>
+  <si>
+    <t>regard</t>
+  </si>
+  <si>
+    <t>gondoskodás, törődés</t>
+  </si>
+  <si>
+    <t>regatta</t>
+  </si>
+  <si>
+    <t>regatta, evező-, vitorlásverseny</t>
+  </si>
+  <si>
+    <t>jamboree</t>
+  </si>
+  <si>
+    <t>összejövetel, muri</t>
+  </si>
+  <si>
+    <t>to regard</t>
+  </si>
+  <si>
+    <t>tekint, tart valamilyennek</t>
+  </si>
+  <si>
+    <t>to assign</t>
+  </si>
+  <si>
+    <t>kijelöl</t>
+  </si>
+  <si>
+    <t>to assign a duty to sy</t>
+  </si>
+  <si>
+    <t>kijelöli v-nek a feladatát</t>
+  </si>
+  <si>
+    <t>to retain</t>
+  </si>
+  <si>
+    <t>megőriz, megnyugtat</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>alapvető</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>kalauz, vezető, útmutató</t>
+  </si>
+  <si>
+    <t>evaluation</t>
+  </si>
+  <si>
+    <t>kiértékelés</t>
+  </si>
+  <si>
+    <t>to transpose</t>
+  </si>
+  <si>
+    <t>felcserél</t>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>támpont, csukló, irányadó</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>kifejezés</t>
+  </si>
+  <si>
+    <t>compliant</t>
+  </si>
+  <si>
+    <t>engedékeny, szolgálatkész</t>
+  </si>
+  <si>
+    <t>to associate</t>
+  </si>
+  <si>
+    <t>összekapcsol, hozzárendelt</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>kérés</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>közösség</t>
+  </si>
+  <si>
+    <t>semicolon</t>
+  </si>
+  <si>
+    <t>pontosvessző</t>
+  </si>
+  <si>
+    <t>to encounter</t>
+  </si>
+  <si>
+    <t>összeakad, találkozik</t>
+  </si>
+  <si>
+    <t>properly</t>
+  </si>
+  <si>
+    <t>alaposan</t>
+  </si>
+  <si>
+    <t>sincerely</t>
+  </si>
+  <si>
+    <t>őszintén</t>
+  </si>
+  <si>
+    <t>encapsulation</t>
+  </si>
+  <si>
+    <t>egységbezárás</t>
+  </si>
+  <si>
+    <t>inheritance</t>
+  </si>
+  <si>
+    <t>öröklődés</t>
+  </si>
+  <si>
+    <t>inquiry</t>
+  </si>
+  <si>
+    <t>érdeklődés, tudakozódás</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>feltétel</t>
+  </si>
+  <si>
+    <t>middleware</t>
+  </si>
+  <si>
+    <t>középkategóriás, középszintű</t>
+  </si>
+  <si>
+    <t>automotive</t>
+  </si>
+  <si>
+    <t>önműködő</t>
+  </si>
+  <si>
+    <t>automotiver starter</t>
+  </si>
+  <si>
+    <t>önindító</t>
+  </si>
+  <si>
+    <t>automotive industry</t>
+  </si>
+  <si>
+    <t>autóipar</t>
+  </si>
+  <si>
+    <t>hivatkozik, idéz</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>idézőjel</t>
+  </si>
+  <si>
+    <t>to replace</t>
+  </si>
+  <si>
+    <t>helyettesít, kicserél</t>
+  </si>
+  <si>
+    <t>to parse</t>
+  </si>
+  <si>
+    <t>elemez</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t>helyettesítés, pótlás</t>
+  </si>
+  <si>
+    <t>preliminary</t>
+  </si>
+  <si>
+    <t>előzetes</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>tárház</t>
+  </si>
+  <si>
+    <t>enhanced</t>
+  </si>
+  <si>
+    <t>kiterjesztett grafikus</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>rövidítés</t>
+  </si>
+  <si>
+    <t>kötelező</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>választható</t>
+  </si>
+  <si>
+    <t>respons</t>
+  </si>
+  <si>
+    <t>válasz, válaszolás</t>
+  </si>
+  <si>
+    <t>to retrieve</t>
+  </si>
+  <si>
+    <t>to obtain</t>
+  </si>
+  <si>
+    <t>hozzájut</t>
+  </si>
+  <si>
+    <t>to omit</t>
+  </si>
+  <si>
+    <t>kihagy</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>illetékes, megbízott</t>
+  </si>
+  <si>
+    <t>meghatároz, kijelöl</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>szempont, figyelem, tisztelet</t>
+  </si>
+  <si>
+    <t>to respect</t>
+  </si>
+  <si>
+    <t>respektál, tisztel, méltányol</t>
+  </si>
+  <si>
+    <t>to correspond</t>
+  </si>
+  <si>
+    <t>egyezik</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>futamidő</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>fészek</t>
+  </si>
+  <si>
+    <t>OUM</t>
+  </si>
+  <si>
+    <t>Oracle Unified Method</t>
+  </si>
+  <si>
+    <t>Oracle túlterhelt metódus</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>kettőspont</t>
+  </si>
+  <si>
+    <t>Don't put a colon in front of the object name!</t>
+  </si>
+  <si>
+    <t>Ne tegyél kettőspontot az objektum neve elé!</t>
+  </si>
+  <si>
+    <t>to compute</t>
+  </si>
+  <si>
+    <t>kiszámít</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>magyarázat, kommentár, annotácó</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>kivitelezés, végrehajtás</t>
+  </si>
+  <si>
+    <t>adaptation</t>
+  </si>
+  <si>
+    <t>alkalmazás, hozzáillesztés</t>
+  </si>
+  <si>
+    <t>improvisation</t>
+  </si>
+  <si>
+    <t>rögtönzés</t>
+  </si>
+  <si>
+    <t>deuce</t>
+  </si>
+  <si>
+    <t>pech, fene, ördög, pokol, teniszben 40 mind</t>
+  </si>
+  <si>
+    <t>to adjust</t>
+  </si>
+  <si>
+    <t>elintéz, rendbe hoz</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>függő</t>
+  </si>
+  <si>
+    <t>to seed</t>
+  </si>
+  <si>
+    <t>kimagoz</t>
+  </si>
+  <si>
+    <t>in certain directory</t>
+  </si>
+  <si>
+    <t>bizonyos mappában</t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>tetszőleges, önkényes</t>
+  </si>
+  <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>összefüggő</t>
+  </si>
+  <si>
+    <t>particular</t>
+  </si>
+  <si>
+    <t>egyéni</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>végeredmény</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>jelentés</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t>címzett</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>szigorú, puritán</t>
+  </si>
+  <si>
+    <t>to attach</t>
+  </si>
+  <si>
+    <t>csatol</t>
+  </si>
+  <si>
+    <t>to detach</t>
+  </si>
+  <si>
+    <t>szétválaszt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capable of sg </t>
+  </si>
+  <si>
+    <t>alkalmas</t>
+  </si>
+  <si>
+    <t>Are you capable of life?</t>
+  </si>
+  <si>
+    <t>Életképes vagy?</t>
+  </si>
+  <si>
+    <t>to keep an eye on sy</t>
+  </si>
+  <si>
+    <t>szemmel tart v-kit</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>kiértékel</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t>kivonat</t>
+  </si>
+  <si>
+    <t>to indicate</t>
+  </si>
+  <si>
+    <t>jelez</t>
+  </si>
+  <si>
+    <t>occurence</t>
+  </si>
+  <si>
+    <t>esemény</t>
+  </si>
+  <si>
+    <t>in all events</t>
+  </si>
+  <si>
+    <t>minden esetben</t>
+  </si>
+  <si>
+    <t>frequent occurrence</t>
+  </si>
+  <si>
+    <t>gyakori előfordulás</t>
+  </si>
+  <si>
+    <t>singular occurence</t>
+  </si>
+  <si>
+    <t>egyedi előfordulás</t>
+  </si>
+  <si>
+    <t>to rasie an event</t>
+  </si>
+  <si>
+    <t>eseményt kelt</t>
+  </si>
+  <si>
+    <t>to alter</t>
+  </si>
+  <si>
+    <t>változtat</t>
+  </si>
+  <si>
+    <t>by default</t>
+  </si>
+  <si>
+    <t>alapjában, alapvető értelemben</t>
+  </si>
+  <si>
+    <t>to consume</t>
+  </si>
+  <si>
+    <t>felhasznál</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>vevő, fogyasztó</t>
+  </si>
+  <si>
+    <t>to notify</t>
+  </si>
+  <si>
+    <t>közöl, értesít</t>
+  </si>
+  <si>
+    <t>event based job</t>
+  </si>
+  <si>
+    <t>esemény vezérelt job</t>
+  </si>
+  <si>
+    <t>It has gone below a certain threshold.</t>
+  </si>
+  <si>
+    <t>Lecsökkent egy meghatározott szint alá.</t>
+  </si>
+  <si>
+    <t>lightweight</t>
+  </si>
+  <si>
+    <t>könnyű</t>
+  </si>
+  <si>
+    <t>to agree</t>
+  </si>
+  <si>
+    <t>egyetért</t>
+  </si>
+  <si>
+    <t>to disagree</t>
+  </si>
+  <si>
+    <t>nem ért egyet</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>megállapodás</t>
+  </si>
+  <si>
+    <t>collective agreement</t>
+  </si>
+  <si>
+    <t>kollektív megállapodás</t>
+  </si>
+  <si>
+    <t>to assume</t>
+  </si>
+  <si>
+    <t>feltételez</t>
+  </si>
+  <si>
+    <t>to dismiss</t>
+  </si>
+  <si>
+    <t>feloszlat, elűz</t>
+  </si>
+  <si>
+    <t>to sweat</t>
+  </si>
+  <si>
+    <t>izzadni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't sweat it. </t>
+  </si>
+  <si>
+    <t>Ne izzadj vele!</t>
+  </si>
+  <si>
+    <t>to be cool as a cucumber</t>
+  </si>
+  <si>
+    <t>szakértőnek lenni</t>
+  </si>
+  <si>
+    <t>to get rid of sg</t>
+  </si>
+  <si>
+    <t>megszabadulni v-től</t>
+  </si>
+  <si>
+    <t>elnyer, hozzájut, megkap</t>
+  </si>
+  <si>
+    <t>canonical</t>
+  </si>
+  <si>
+    <t>egyszerűsített</t>
+  </si>
+  <si>
+    <t>overloaded function</t>
+  </si>
+  <si>
+    <t>túltöltött függvény (többféle par lista lehet)</t>
+  </si>
+  <si>
+    <t>to release</t>
+  </si>
+  <si>
+    <t>felszabadít</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It releases all resources associated with it. </t>
+  </si>
+  <si>
+    <t>Minden ezzel összekapcsolt erőforrást felszabadít.</t>
+  </si>
+  <si>
+    <t>to restrict</t>
+  </si>
+  <si>
+    <t>korlátoz</t>
+  </si>
+  <si>
+    <t>to facilitate</t>
+  </si>
+  <si>
+    <t>megkönnyít</t>
+  </si>
+  <si>
+    <t>specify (specify NOCOPY)</t>
+  </si>
+  <si>
+    <t>kikötés (a NOCOPY kikötés)</t>
+  </si>
+  <si>
+    <t>instuct the database</t>
+  </si>
+  <si>
+    <t>utasítja az adatbázist</t>
+  </si>
+  <si>
+    <t>pass this argument</t>
+  </si>
+  <si>
+    <t>adja meg a paramétert</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>napirend</t>
+  </si>
+  <si>
+    <t>secure platform</t>
+  </si>
+  <si>
+    <t>biztos alap</t>
+  </si>
+  <si>
+    <t>mature</t>
+  </si>
+  <si>
+    <t>kiforrott</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>keretrendszer</t>
+  </si>
+  <si>
+    <t>to simplify</t>
+  </si>
+  <si>
+    <t>egyszerűsít</t>
+  </si>
+  <si>
+    <t>to implement</t>
+  </si>
+  <si>
+    <t>megvalósít</t>
+  </si>
+  <si>
+    <t>to deploy</t>
+  </si>
+  <si>
+    <t>hadrendbe állít, használ</t>
+  </si>
+  <si>
+    <t>capability</t>
+  </si>
+  <si>
+    <t>képesség, adottság</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>toldalék, rag</t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>(szövőke, oda-vissza járó) sződd be, tedd át a másikba</t>
+  </si>
+  <si>
+    <t>kapcsold ki, engedd el</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>csomópont (hierarchiában egy ág)</t>
+  </si>
+  <si>
+    <t>to invoke</t>
+  </si>
+  <si>
+    <t>lehív, folyamodik</t>
+  </si>
+  <si>
+    <t>to ensure</t>
+  </si>
+  <si>
+    <t>megbizonyosodik, meggyőződik</t>
+  </si>
+  <si>
+    <t>I'm not familiar with politics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nem vagyok járatos a politikában. </t>
+  </si>
+  <si>
+    <t>politic</t>
+  </si>
+  <si>
+    <t>politikus, ügyes, körültekintő</t>
+  </si>
+  <si>
+    <t>to consider</t>
+  </si>
+  <si>
+    <t>figyelembe vesz</t>
+  </si>
+  <si>
+    <t>to enforce</t>
+  </si>
+  <si>
+    <t>kikényszerít</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>érvénytelenített</t>
+  </si>
+  <si>
+    <t>intersect</t>
+  </si>
+  <si>
+    <t>metszéspont, közös halmaz</t>
+  </si>
+  <si>
+    <t>persist</t>
+  </si>
+  <si>
+    <t>kitartó, állhatatos</t>
+  </si>
+  <si>
+    <t>to establish</t>
+  </si>
+  <si>
+    <t>létrehoz, alapít</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>alapítvány</t>
+  </si>
+  <si>
+    <t>to discard</t>
+  </si>
+  <si>
+    <t>eldob, kiszuperál</t>
+  </si>
+  <si>
+    <t>to backup</t>
+  </si>
+  <si>
+    <t>megtámaszt, adatot kiment</t>
+  </si>
+  <si>
+    <t>to restore</t>
+  </si>
+  <si>
+    <t>visszaállít</t>
+  </si>
+  <si>
+    <t>obsolote</t>
+  </si>
+  <si>
+    <t>ósdi, elavult</t>
+  </si>
+  <si>
+    <t>discard</t>
+  </si>
+  <si>
+    <t>szemét, hulladék</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>tétlen, kihasználatlan</t>
+  </si>
+  <si>
+    <t>legacy (heritage)</t>
+  </si>
+  <si>
+    <t>örökség</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>(temporary) tárolótér</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>hagyományos, megszokott</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>kiadás</t>
+  </si>
+  <si>
+    <t>snippet</t>
+  </si>
+  <si>
+    <t>töredék</t>
+  </si>
+  <si>
+    <t>excluding</t>
+  </si>
+  <si>
+    <t>kivéve</t>
+  </si>
+  <si>
+    <t>to mimic</t>
+  </si>
+  <si>
+    <t>utánoz</t>
+  </si>
+  <si>
+    <t>corresponding</t>
+  </si>
+  <si>
+    <t>egyező</t>
+  </si>
+  <si>
+    <t>to attempt</t>
+  </si>
+  <si>
+    <t>megpróbál, megkísérel</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>sablon, minta, példa</t>
+  </si>
+  <si>
+    <t>subsequent</t>
+  </si>
+  <si>
+    <t>későbbi</t>
+  </si>
+  <si>
+    <t>refine</t>
+  </si>
+  <si>
+    <t>finomít, csiszol</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>lét, entitás, valóság (legal entity - jogi személy)</t>
+  </si>
+  <si>
+    <t>to compose</t>
+  </si>
+  <si>
+    <t>képez, összeállít</t>
+  </si>
+  <si>
+    <t>customized</t>
+  </si>
+  <si>
+    <t>beállított</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>entity objects - tables</t>
+  </si>
+  <si>
+    <t>egyedi objektum - táblák</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>view object - views</t>
+  </si>
+  <si>
+    <t>nézet objectum - view-k</t>
+  </si>
+  <si>
+    <t>to be for sg</t>
+  </si>
+  <si>
+    <t>pártol valamit /  arra jó, hogy</t>
+  </si>
+  <si>
+    <t>entity based view objects</t>
+  </si>
+  <si>
+    <t>updateable view-k</t>
+  </si>
+  <si>
+    <t>query-based view objects</t>
+  </si>
+  <si>
+    <t>view-k</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>applicatin module</t>
+  </si>
+  <si>
+    <t>applikációs modul</t>
+  </si>
+  <si>
+    <t>to association</t>
+  </si>
+  <si>
+    <t>társít, kapcsol</t>
+  </si>
+  <si>
+    <t>but also</t>
+  </si>
+  <si>
+    <t>hanem</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>idegen kulcs</t>
+  </si>
+  <si>
+    <t>initally</t>
+  </si>
+  <si>
+    <t>először, kezdetben</t>
+  </si>
+  <si>
+    <t>to determine</t>
+  </si>
+  <si>
+    <t>meghatároz</t>
+  </si>
+  <si>
+    <t>LOV</t>
+  </si>
+  <si>
+    <t>List of values</t>
+  </si>
+  <si>
+    <t>értéklista</t>
+  </si>
+  <si>
+    <t>individually</t>
+  </si>
+  <si>
+    <t>egyénileg, saját magad</t>
+  </si>
+  <si>
+    <t>from the context menu</t>
+  </si>
+  <si>
+    <t>a hozzátartozó menüből</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>kitár</t>
+  </si>
+  <si>
+    <t>contracted</t>
+  </si>
+  <si>
+    <t>összezsugorodott</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>szerződés</t>
+  </si>
+  <si>
+    <t>VVO</t>
+  </si>
+  <si>
+    <t>updateble view object</t>
+  </si>
+  <si>
+    <t>táblához kötött view</t>
+  </si>
+  <si>
+    <t>to specify</t>
+  </si>
+  <si>
+    <t>kiköt, elrendel</t>
+  </si>
+  <si>
+    <t>to designate</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>kezelés, használat</t>
+  </si>
+  <si>
+    <t>accessor</t>
+  </si>
+  <si>
+    <t>tartozék</t>
+  </si>
+  <si>
+    <t>to pertain</t>
+  </si>
+  <si>
+    <t>vonatkozik, tartozik</t>
+  </si>
+  <si>
+    <t>to accomplish</t>
+  </si>
+  <si>
+    <t>befejez, elvégez</t>
+  </si>
+  <si>
+    <t>mission accomplished</t>
+  </si>
+  <si>
+    <t>küldetés kész</t>
+  </si>
+  <si>
+    <t>to expose</t>
+  </si>
+  <si>
+    <t>ismertet</t>
+  </si>
+  <si>
+    <t>declarative modifications</t>
+  </si>
+  <si>
+    <t>nyílt módosítás</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>user interface</t>
+  </si>
+  <si>
+    <t>felhasználói felület</t>
+  </si>
+  <si>
+    <t>order shipped date</t>
+  </si>
+  <si>
+    <t>kiszállítási dátum</t>
+  </si>
+  <si>
+    <t>order date</t>
+  </si>
+  <si>
+    <t>rendelési dátum</t>
+  </si>
+  <si>
+    <t>to populate</t>
+  </si>
+  <si>
+    <t>megszemélyesít, érteket ad neki, megtestesít</t>
+  </si>
+  <si>
+    <t>to persist</t>
+  </si>
+  <si>
+    <t>kitart</t>
+  </si>
+  <si>
+    <t>persistence</t>
+  </si>
+  <si>
+    <t>kitartó</t>
+  </si>
+  <si>
+    <t>designate</t>
+  </si>
+  <si>
+    <t>to perform</t>
+  </si>
+  <si>
+    <t>végezd el, csináld meg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform this step only if … </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csak akkor csináld meg ezt a lépést, ha … </t>
+  </si>
+  <si>
+    <t>populated</t>
+  </si>
+  <si>
+    <t>benépesítve, jól kitöltve</t>
+  </si>
+  <si>
+    <t>literal value</t>
+  </si>
+  <si>
+    <t>szöveggel megadott változó</t>
+  </si>
+  <si>
+    <t>bind value</t>
+  </si>
+  <si>
+    <t>hozzákötött változó</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>miután</t>
+  </si>
+  <si>
+    <t>brace (left brace, right brace)</t>
+  </si>
+  <si>
+    <t>zárójel</t>
+  </si>
+  <si>
+    <t>abstract = based on general ideas</t>
+  </si>
+  <si>
+    <t>általános elven alapul</t>
+  </si>
+  <si>
+    <t>to be based on</t>
+  </si>
+  <si>
+    <t>valamin alapul</t>
+  </si>
+  <si>
+    <t>to instantiate</t>
+  </si>
+  <si>
+    <t>megtestesít</t>
+  </si>
+  <si>
+    <t>to confuse</t>
+  </si>
+  <si>
+    <t>összekever, összezavar</t>
+  </si>
+  <si>
+    <t>to supplement</t>
+  </si>
+  <si>
+    <t>kiegészít</t>
+  </si>
+  <si>
+    <t>resolved</t>
+  </si>
+  <si>
+    <t>határozott</t>
+  </si>
+  <si>
+    <t>to cast / cast / cast</t>
+  </si>
+  <si>
+    <t>rávetít</t>
+  </si>
+  <si>
+    <t>the Number cannot be cast to Long</t>
+  </si>
+  <si>
+    <t>a number típus nem vetíthető rá a Long típusra</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>kísérlet</t>
+  </si>
+  <si>
+    <t>expired time</t>
+  </si>
+  <si>
+    <t>eddig eltel idő</t>
+  </si>
+  <si>
+    <t>remaining time</t>
+  </si>
+  <si>
+    <t>hátralévő idő</t>
+  </si>
+  <si>
+    <t>to experiment</t>
+  </si>
+  <si>
+    <t>kísérletezik</t>
+  </si>
+  <si>
+    <t>for instance = for example</t>
+  </si>
+  <si>
+    <t>például</t>
+  </si>
+  <si>
+    <t>végrehajtás, kivitelezés</t>
+  </si>
+  <si>
+    <t>to extend</t>
+  </si>
+  <si>
+    <t>kiterjeszt</t>
+  </si>
+  <si>
+    <t>The shipping date is not prior to the order date.</t>
+  </si>
+  <si>
+    <t>A szállítási dátum nem előzheti meg a rendelési dátumot.</t>
+  </si>
+  <si>
+    <t>egységbe zár</t>
+  </si>
+  <si>
+    <t>make note of this book</t>
+  </si>
+  <si>
+    <t>vess egy pillantást erre a könyvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is because … </t>
+  </si>
+  <si>
+    <t>Ez azért van, mert</t>
+  </si>
+  <si>
+    <t>to resume</t>
+  </si>
+  <si>
+    <t>folytat</t>
+  </si>
+  <si>
+    <t>to defer</t>
+  </si>
+  <si>
+    <t>belenyugszik</t>
+  </si>
+  <si>
+    <t>be evaluated</t>
+  </si>
+  <si>
+    <t>kiértékelve</t>
+  </si>
+  <si>
+    <t>suite</t>
+  </si>
+  <si>
+    <t>széria, készlet</t>
+  </si>
+  <si>
+    <t>be concerned with</t>
+  </si>
+  <si>
+    <t>foglalkozik azzl, hogy , érintett abban, hogy</t>
+  </si>
+  <si>
+    <t>undisputedly</t>
+  </si>
+  <si>
+    <t>vitathatatlanul, kétségbe nem vonható</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in addition to </t>
+  </si>
+  <si>
+    <t>v-min kívül</t>
+  </si>
+  <si>
+    <t>JSF</t>
+  </si>
+  <si>
+    <t>JavaServer Faces</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>haszon</t>
+  </si>
+  <si>
+    <t>to obligate sy to do sg</t>
+  </si>
+  <si>
+    <t>kötelez v-kit- v-minek a megtételére</t>
+  </si>
+  <si>
+    <t>this is obligate</t>
+  </si>
+  <si>
+    <t>ez szükségszerű</t>
+  </si>
+  <si>
+    <t>course material</t>
+  </si>
+  <si>
+    <t>tanfolyami anyag</t>
+  </si>
+  <si>
+    <t>be certain</t>
+  </si>
+  <si>
+    <t>biztos benne</t>
+  </si>
+  <si>
+    <t>to attend (a course)</t>
+  </si>
+  <si>
+    <t>részt vesz, látogat (egy kurzust ), eljár (egy kurzusra)</t>
+  </si>
+  <si>
+    <t>fundamental</t>
+  </si>
+  <si>
+    <t>alap</t>
+  </si>
+  <si>
+    <t>alapozás</t>
+  </si>
+  <si>
+    <t>please read prior</t>
+  </si>
+  <si>
+    <t>olvasd el figyelmesen</t>
+  </si>
+  <si>
+    <t>to withstand</t>
+  </si>
+  <si>
+    <t>ellenáll, ellenszegül</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Carriage Return (13)</t>
+  </si>
+  <si>
+    <t>kocsivissza</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>LineFeed (10) (UNIX-on újsor)</t>
+  </si>
+  <si>
+    <t>soremelés</t>
+  </si>
+  <si>
+    <t>to reduce</t>
+  </si>
+  <si>
+    <t>csökken</t>
+  </si>
+  <si>
+    <t>no pain, no gain</t>
+  </si>
+  <si>
+    <t>nincs fájdalom, nincs nyereség</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>gyarapodás, növekedés</t>
+  </si>
+  <si>
+    <t>explicitly</t>
+  </si>
+  <si>
+    <t>félreérthetetlenül</t>
+  </si>
+  <si>
+    <t>implicitly</t>
+  </si>
+  <si>
+    <t>értelemszerűen</t>
+  </si>
+  <si>
+    <t>infinity</t>
+  </si>
+  <si>
+    <t>végtelen</t>
+  </si>
+  <si>
+    <t>ethernity</t>
+  </si>
+  <si>
+    <t>örökkévalóság</t>
+  </si>
+  <si>
+    <t>vitathatatlanul</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>kültéri</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>holmi, felszerelés</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>forgatókönyv</t>
+  </si>
+  <si>
+    <t>they have nothing in common</t>
+  </si>
+  <si>
+    <t>semmiben sem hasonlítanak egymásra</t>
+  </si>
+  <si>
+    <t>they have something in common</t>
+  </si>
+  <si>
+    <t>valamiben hasonlítanak</t>
+  </si>
+  <si>
+    <t>overlap</t>
+  </si>
+  <si>
+    <t>átfedés</t>
+  </si>
+  <si>
+    <t>fontolóra vesz</t>
+  </si>
+  <si>
+    <t>another way of saying</t>
+  </si>
+  <si>
+    <t>mésképpen szólva</t>
+  </si>
+  <si>
+    <t>soccer</t>
+  </si>
+  <si>
+    <t>foci</t>
+  </si>
+  <si>
+    <t>instantiate</t>
+  </si>
+  <si>
+    <t>to reverse</t>
+  </si>
+  <si>
+    <t>megfordít</t>
+  </si>
+  <si>
+    <t>to tidy up</t>
+  </si>
+  <si>
+    <t>rendbe tesz</t>
+  </si>
+  <si>
+    <t>to make sense</t>
+  </si>
+  <si>
+    <t>megért, felfog</t>
+  </si>
+  <si>
+    <t>to enhance</t>
+  </si>
+  <si>
+    <t>kiterjeszt, fokoz, bővít</t>
+  </si>
+  <si>
+    <t>drawback</t>
+  </si>
+  <si>
+    <t>hátrány</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>közelítés, hozzáállás</t>
+  </si>
+  <si>
+    <t>arbitrarily</t>
+  </si>
+  <si>
+    <t>önhatalmúlag, tetszőlegesen</t>
+  </si>
+  <si>
+    <t>to rank</t>
+  </si>
+  <si>
+    <t>beoszt, rangsorol</t>
+  </si>
+  <si>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t>választható, megfelelő</t>
+  </si>
+  <si>
+    <t>bypass</t>
+  </si>
+  <si>
+    <t>kerülőút, mellékáramkör, gyújtóláng, összekötő út</t>
+  </si>
+  <si>
+    <t>hardcoded</t>
+  </si>
+  <si>
+    <t>beégetve (nem dinamikus)</t>
+  </si>
+  <si>
+    <t>possession</t>
+  </si>
+  <si>
+    <t>birtoklás</t>
+  </si>
+  <si>
+    <t>occurences</t>
+  </si>
+  <si>
+    <t>előfordulások</t>
+  </si>
+  <si>
+    <t>to impose</t>
+  </si>
+  <si>
+    <t>kötelességet kiró</t>
+  </si>
+  <si>
+    <t>it does the comparison</t>
+  </si>
+  <si>
+    <t>elvégzi az összehasonlítást</t>
+  </si>
+  <si>
+    <t>omit time</t>
+  </si>
+  <si>
+    <t>időben</t>
+  </si>
+  <si>
+    <t>elmulaszt</t>
+  </si>
+  <si>
+    <t>to supress</t>
+  </si>
+  <si>
+    <t>eltitkol</t>
+  </si>
+  <si>
+    <t>to process</t>
+  </si>
+  <si>
+    <t>feldolgoz</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>nyomvonal, nyomsáv</t>
+  </si>
+  <si>
+    <t>stack / halom</t>
+  </si>
+  <si>
+    <t>verem (paraméterek a fv-hez)/ halom</t>
+  </si>
+  <si>
+    <t>to recover</t>
+  </si>
+  <si>
+    <t>helyrehoz</t>
+  </si>
+  <si>
+    <t>to propagate</t>
+  </si>
+  <si>
+    <t>szaporít, terjeszt</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>horog</t>
+  </si>
+  <si>
+    <t>to throw, threw, thrown</t>
+  </si>
+  <si>
+    <t>dobni</t>
+  </si>
+  <si>
+    <t>alapszintű</t>
+  </si>
+  <si>
+    <t>fragment</t>
+  </si>
+  <si>
+    <t>minta, sablon</t>
+  </si>
+  <si>
+    <t>task flow</t>
+  </si>
+  <si>
+    <t>munkafolyamat</t>
+  </si>
+  <si>
+    <t>wildcard</t>
+  </si>
+  <si>
+    <t>önkényes, tetszőleges, tetszés szerinti</t>
+  </si>
+  <si>
+    <t>pane</t>
+  </si>
+  <si>
+    <t>mező</t>
+  </si>
+  <si>
+    <t>to render</t>
+  </si>
+  <si>
+    <t>lefordít, fordít</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>megjelenés / látszat</t>
+  </si>
+  <si>
+    <t>bread crumb</t>
+  </si>
+  <si>
+    <t>kenyérmorzsa</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>köteg, csomag, nyaláb, csomó</t>
+  </si>
+  <si>
+    <t>income / outcome</t>
+  </si>
+  <si>
+    <t>bevéltel / kiadás</t>
+  </si>
+  <si>
+    <t>to cover</t>
+  </si>
+  <si>
+    <t>lefedni</t>
+  </si>
+  <si>
+    <t>to uncover</t>
+  </si>
+  <si>
+    <t>felfedni</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>fesztáv</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>a keret körüli "keret"</t>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>a kereten belüli "keret"</t>
+  </si>
+  <si>
+    <t>parser</t>
+  </si>
+  <si>
+    <t>(szöveg)elemző</t>
+  </si>
+  <si>
+    <t>parse filename</t>
+  </si>
+  <si>
+    <t>filenév előkészítés</t>
+  </si>
+  <si>
+    <t>reponding</t>
+  </si>
+  <si>
+    <t>válasz</t>
+  </si>
+  <si>
+    <t>to respond</t>
+  </si>
+  <si>
+    <t>válaszol, felel</t>
+  </si>
+  <si>
+    <t>at runtime</t>
+  </si>
+  <si>
+    <t>futási időben</t>
+  </si>
+  <si>
+    <t>korlátoz, megszorít</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>védelem, biztonság</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>környezeti-, munka-, egészségvédelem</t>
+  </si>
+  <si>
+    <t>please enter your identification!</t>
+  </si>
+  <si>
+    <t>kérem gépeld be az azonosítódat!</t>
+  </si>
+  <si>
+    <t>authentication</t>
+  </si>
+  <si>
+    <t>hitelesítés</t>
+  </si>
+  <si>
+    <t>approval</t>
+  </si>
+  <si>
+    <t>engedélyezés</t>
+  </si>
+  <si>
+    <t>privilege</t>
+  </si>
+  <si>
+    <t>jogosultság</t>
+  </si>
+  <si>
+    <t>kérdéses</t>
+  </si>
+  <si>
+    <t>to estimate</t>
+  </si>
+  <si>
+    <t>becslés, értékelés</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>példány</t>
+  </si>
+  <si>
+    <t>appropriately</t>
+  </si>
+  <si>
+    <t>megfelelően</t>
+  </si>
+  <si>
+    <t>capably</t>
+  </si>
+  <si>
+    <t>to assert</t>
+  </si>
+  <si>
+    <t>updatable</t>
+  </si>
+  <si>
+    <t>frissíthető</t>
+  </si>
+  <si>
+    <t>insertable</t>
+  </si>
+  <si>
+    <t>behelyezhető</t>
+  </si>
+  <si>
+    <t>deletable</t>
+  </si>
+  <si>
+    <t>törölhető</t>
+  </si>
+  <si>
+    <t>preserved</t>
+  </si>
+  <si>
+    <t>megőrzött</t>
+  </si>
+  <si>
+    <t>probléma</t>
+  </si>
+  <si>
+    <t>to allow</t>
+  </si>
+  <si>
+    <t>enged</t>
+  </si>
+  <si>
+    <t>ambigous</t>
+  </si>
+  <si>
+    <t>kétértelmlű</t>
+  </si>
+  <si>
+    <t>érvényesíteni</t>
+  </si>
+  <si>
+    <t>at most</t>
+  </si>
+  <si>
+    <t>leginkább</t>
+  </si>
+  <si>
+    <t>at last</t>
+  </si>
+  <si>
+    <t>legalább</t>
+  </si>
+  <si>
+    <t>key-preserved table</t>
+  </si>
+  <si>
+    <t>olyan tábla, amely biztosítja az egyedi kulcsot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -274,17 +2327,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál 2" xfId="1" xr:uid="{C5248549-8529-461E-91B3-793F3C250EAC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,7 +2707,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,33 +2996,2975 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7A4716-FEA3-4CB7-895C-343688FF3FFD}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2617292-11E8-4AEF-987F-F80B2AA7C89C}">
+  <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="47" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B209" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C211" s="5"/>
+      <c r="D211" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B215" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B218" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="5"/>
+      <c r="B221" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B224" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B225" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B226" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B227" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B228" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B229" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B230" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="B231" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B232" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B233" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B235" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B237" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B238" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B239" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="5"/>
+      <c r="B241" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C241" s="5"/>
+      <c r="D241" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B243" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B249" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="5"/>
+      <c r="B251" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C251" s="5"/>
+      <c r="D251" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B253" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B255" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B259" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C261" s="5"/>
+      <c r="D261" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B265" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B266" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B267" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B268" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B270" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="5"/>
+      <c r="B271" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C271" s="5"/>
+      <c r="D271" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B273" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B274" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B275" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B276" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B277" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B278" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B279" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B280" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="5"/>
+      <c r="B281" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C281" s="5"/>
+      <c r="D281" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B282" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B283" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B284" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B285" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B286" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B287" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B288" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B289" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B290" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="5"/>
+      <c r="B291" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C291" s="5"/>
+      <c r="D291" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B292" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B293" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B294" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B295" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B296" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B297" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B298" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B299" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="C299" s="18"/>
+      <c r="D299" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="E299" s="17"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B300" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="5"/>
+      <c r="B301" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C301" s="5"/>
+      <c r="D301" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B302" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B303" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B304" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B305" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B306" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B307" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B308" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B309" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B310" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B311" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="5"/>
+      <c r="B312" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C312" s="5"/>
+      <c r="D312" s="7"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B313" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B314" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B315" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B316" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B317" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B318" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B319" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B320" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B321" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="5"/>
+      <c r="B322" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C322" s="5"/>
+      <c r="D322" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B323" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B324" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B325" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B326" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B327" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B328" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B329" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B330" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B331" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="5"/>
+      <c r="B332" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="C332" s="5"/>
+      <c r="D332" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B333" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B334" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B335" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B336" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B337" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B338" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B339" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B340" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B341" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="5"/>
+      <c r="B342" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C342" s="5"/>
+      <c r="D342" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B343" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B344" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B345" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B346" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B347" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B348" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B349" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B350" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B351" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="5"/>
+      <c r="B352" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C352" s="5"/>
+      <c r="D352" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B353" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B354" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gari_Dictionary.xlsx
+++ b/Gari_Dictionary.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gari\english\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="BF02BE698EBB6C950040CD02CF95C4236FD9DB74" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{70D37CE6-AF43-D245-AC01-3DCA4E3C6896}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" tabRatio="596" xr2:uid="{826C1F26-B24D-4D5C-879E-AB14CC9440BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" tabRatio="596" activeTab="2" xr2:uid="{826C1F26-B24D-4D5C-879E-AB14CC9440BA}"/>
   </bookViews>
   <sheets>
     <sheet name="TFP" sheetId="1" r:id="rId1"/>
     <sheet name="java_szavak" sheetId="4" r:id="rId2"/>
+    <sheet name="Czobor-H" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2703,19 +2705,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177E24E0-98C2-4919-A300-73D39A43ABCB}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{EF05D32A-BC43-532D-B687-DBB7F7C53227}">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="47" customWidth="1"/>
+    <col min="2" max="3" width="46.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2742,7 +2744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -2758,7 +2760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -2766,7 +2768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -2790,7 +2792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -2806,7 +2808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -2846,7 +2848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -2854,7 +2856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -2862,7 +2864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>43</v>
       </c>
@@ -2894,7 +2896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -2902,7 +2904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -2910,7 +2912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>49</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>51</v>
       </c>
@@ -2926,7 +2928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>53</v>
       </c>
@@ -2934,7 +2936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>55</v>
       </c>
@@ -2942,7 +2944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>57</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -2958,7 +2960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>61</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>63</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
@@ -2982,7 +2984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>67</v>
       </c>
@@ -2999,20 +3001,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2617292-11E8-4AEF-987F-F80B2AA7C89C}">
   <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0" xr3:uid="{D13DFA87-C192-5C37-B802-9DFCC40B469B}">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.9921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.8515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.15234375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.4453125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.14453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>69</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
@@ -3055,7 +3057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>77</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>81</v>
       </c>
@@ -3079,7 +3081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
@@ -3087,7 +3089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>85</v>
       </c>
@@ -3095,7 +3097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>87</v>
@@ -3105,7 +3107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>89</v>
       </c>
@@ -3113,7 +3115,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>92</v>
       </c>
@@ -3129,7 +3131,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>94</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>96</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>100</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>101</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>103</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>105</v>
@@ -3187,7 +3189,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>107</v>
       </c>
@@ -3195,7 +3197,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>109</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>111</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>113</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>115</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>117</v>
       </c>
@@ -3235,7 +3237,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>119</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>121</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>123</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>125</v>
@@ -3269,7 +3271,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>127</v>
       </c>
@@ -3277,7 +3279,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>129</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>131</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>133</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>135</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>137</v>
       </c>
@@ -3317,7 +3319,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>139</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>141</v>
       </c>
@@ -3333,7 +3335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>143</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
         <v>145</v>
@@ -3351,7 +3353,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>147</v>
       </c>
@@ -3359,7 +3361,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>149</v>
       </c>
@@ -3367,7 +3369,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>151</v>
       </c>
@@ -3375,7 +3377,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>153</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>155</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>157</v>
       </c>
@@ -3399,7 +3401,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>159</v>
       </c>
@@ -3407,7 +3409,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>161</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>163</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
         <v>165</v>
@@ -3433,7 +3435,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>167</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>169</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>171</v>
       </c>
@@ -3457,7 +3459,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>173</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>71</v>
       </c>
@@ -3473,7 +3475,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>176</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>178</v>
       </c>
@@ -3489,7 +3491,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>180</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>182</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="11" t="s">
         <v>184</v>
@@ -3515,7 +3517,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="14" t="s">
         <v>186</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="14" t="s">
         <v>188</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="14" t="s">
         <v>190</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>73</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>193</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" s="14" t="s">
         <v>195</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" s="14" t="s">
         <v>197</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" s="14" t="s">
         <v>198</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B70" s="14" t="s">
         <v>200</v>
       </c>
@@ -3596,7 +3598,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="11" t="s">
         <v>202</v>
@@ -3606,7 +3608,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" s="14" t="s">
         <v>125</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" s="14" t="s">
         <v>205</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" s="14" t="s">
         <v>207</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" s="14" t="s">
         <v>209</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" s="14" t="s">
         <v>211</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B77" s="14" t="s">
         <v>213</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>215</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" s="14" t="s">
         <v>218</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" s="14" t="s">
         <v>220</v>
       </c>
@@ -3690,7 +3692,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="6" t="s">
         <v>222</v>
@@ -3700,7 +3702,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>224</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>226</v>
       </c>
@@ -3716,7 +3718,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>228</v>
       </c>
@@ -3724,7 +3726,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>230</v>
       </c>
@@ -3732,7 +3734,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>232</v>
       </c>
@@ -3740,7 +3742,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>234</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>236</v>
       </c>
@@ -3756,7 +3758,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>238</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>240</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="6" t="s">
         <v>242</v>
@@ -3782,7 +3784,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>244</v>
       </c>
@@ -3790,7 +3792,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>246</v>
       </c>
@@ -3798,7 +3800,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>248</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>250</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>252</v>
       </c>
@@ -3822,7 +3824,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>254</v>
       </c>
@@ -3830,7 +3832,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>256</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>258</v>
       </c>
@@ -3846,7 +3848,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>260</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="9" t="s">
         <v>262</v>
@@ -3864,7 +3866,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>264</v>
       </c>
@@ -3872,7 +3874,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>266</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>268</v>
       </c>
@@ -3888,7 +3890,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>270</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>272</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
         <v>274</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>276</v>
       </c>
@@ -3920,7 +3922,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>278</v>
       </c>
@@ -3928,7 +3930,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>280</v>
       </c>
@@ -3936,7 +3938,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="6" t="s">
         <v>282</v>
@@ -3946,7 +3948,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
         <v>284</v>
       </c>
@@ -3954,7 +3956,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>286</v>
       </c>
@@ -3962,7 +3964,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>288</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>290</v>
       </c>
@@ -3978,7 +3980,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>292</v>
       </c>
@@ -3986,7 +3988,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>294</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>296</v>
       </c>
@@ -4002,7 +4004,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>298</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>300</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="6" t="s">
         <v>302</v>
@@ -4028,7 +4030,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>304</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
         <v>306</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>308</v>
       </c>
@@ -4052,7 +4054,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
         <v>310</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" s="3" t="s">
         <v>312</v>
       </c>
@@ -4068,7 +4070,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>314</v>
       </c>
@@ -4076,7 +4078,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128" s="3" t="s">
         <v>316</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
         <v>198</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>319</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="6" t="s">
         <v>321</v>
@@ -4110,7 +4112,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
         <v>323</v>
       </c>
@@ -4118,7 +4120,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>325</v>
       </c>
@@ -4126,7 +4128,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
         <v>327</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
         <v>329</v>
       </c>
@@ -4142,7 +4144,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>331</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
         <v>333</v>
       </c>
@@ -4158,7 +4160,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
         <v>335</v>
       </c>
@@ -4166,7 +4168,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>337</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
         <v>339</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="6" t="s">
         <v>341</v>
@@ -4192,7 +4194,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>343</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
         <v>345</v>
       </c>
@@ -4208,7 +4210,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B144" s="3" t="s">
         <v>347</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>349</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B146" s="3" t="s">
         <v>351</v>
       </c>
@@ -4232,7 +4234,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B147" s="3" t="s">
         <v>353</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>355</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B149" s="3" t="s">
         <v>308</v>
       </c>
@@ -4256,7 +4258,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
         <v>358</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="6" t="s">
         <v>360</v>
@@ -4274,7 +4276,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B152" s="3" t="s">
         <v>362</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B153" s="3" t="s">
         <v>364</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
         <v>366</v>
       </c>
@@ -4298,7 +4300,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
         <v>368</v>
       </c>
@@ -4306,7 +4308,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
         <v>370</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
         <v>372</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
         <v>374</v>
       </c>
@@ -4330,7 +4332,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>376</v>
       </c>
@@ -4338,7 +4340,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
         <v>378</v>
       </c>
@@ -4346,7 +4348,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="6" t="s">
         <v>380</v>
@@ -4356,7 +4358,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B162" s="3" t="s">
         <v>382</v>
       </c>
@@ -4364,7 +4366,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
         <v>384</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B164" s="3" t="s">
         <v>386</v>
       </c>
@@ -4380,7 +4382,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
         <v>388</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
         <v>390</v>
       </c>
@@ -4396,7 +4398,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
         <v>392</v>
       </c>
@@ -4404,7 +4406,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B168" s="3" t="s">
         <v>394</v>
       </c>
@@ -4412,7 +4414,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
         <v>396</v>
       </c>
@@ -4420,7 +4422,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
         <v>398</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="6" t="s">
         <v>400</v>
@@ -4438,7 +4440,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
         <v>402</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
         <v>404</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B174" s="3" t="s">
         <v>406</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
         <v>408</v>
       </c>
@@ -4470,7 +4472,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
         <v>410</v>
       </c>
@@ -4478,7 +4480,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
         <v>412</v>
       </c>
@@ -4486,7 +4488,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B178" s="3" t="s">
         <v>414</v>
       </c>
@@ -4494,7 +4496,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
         <v>416</v>
       </c>
@@ -4502,7 +4504,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
         <v>418</v>
       </c>
@@ -4510,7 +4512,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="6" t="s">
         <v>420</v>
@@ -4520,7 +4522,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
         <v>422</v>
       </c>
@@ -4528,7 +4530,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>424</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>427</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
         <v>430</v>
       </c>
@@ -4558,7 +4560,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B186" s="3" t="s">
         <v>432</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
         <v>434</v>
       </c>
@@ -4574,7 +4576,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>436</v>
       </c>
@@ -4585,7 +4587,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B189" s="3" t="s">
         <v>439</v>
       </c>
@@ -4593,7 +4595,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
         <v>441</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>443</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
         <v>446</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B193" s="3" t="s">
         <v>448</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>450</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B195" s="3" t="s">
         <v>453</v>
       </c>
@@ -4648,7 +4650,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
         <v>455</v>
       </c>
@@ -4656,7 +4658,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
         <v>457</v>
       </c>
@@ -4664,7 +4666,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
         <v>459</v>
       </c>
@@ -4672,7 +4674,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B199" s="3" t="s">
         <v>461</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>463</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="6" t="s">
         <v>466</v>
@@ -4701,7 +4703,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
         <v>468</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B203" s="3" t="s">
         <v>469</v>
       </c>
@@ -4717,7 +4719,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
         <v>471</v>
       </c>
@@ -4725,7 +4727,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B205" s="3" t="s">
         <v>473</v>
       </c>
@@ -4733,7 +4735,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B206" s="3" t="s">
         <v>475</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B207" s="3" t="s">
         <v>477</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
         <v>479</v>
       </c>
@@ -4757,7 +4759,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B209" s="3" t="s">
         <v>481</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>483</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="6" t="s">
         <v>486</v>
@@ -4786,7 +4788,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B212" s="3" t="s">
         <v>488</v>
       </c>
@@ -4794,7 +4796,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B213" s="3" t="s">
         <v>490</v>
       </c>
@@ -4802,7 +4804,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B214" s="3" t="s">
         <v>492</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B215" s="3" t="s">
         <v>494</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B216" s="3" t="s">
         <v>496</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B217" s="3" t="s">
         <v>497</v>
       </c>
@@ -4834,7 +4836,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B218" s="3" t="s">
         <v>499</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B219" s="3" t="s">
         <v>501</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B220" s="3" t="s">
         <v>503</v>
       </c>
@@ -4858,7 +4860,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="6" t="s">
         <v>505</v>
@@ -4868,7 +4870,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B222" s="3" t="s">
         <v>507</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B223" s="3" t="s">
         <v>509</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B224" s="3" t="s">
         <v>511</v>
       </c>
@@ -4892,7 +4894,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B225" s="3" t="s">
         <v>513</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B226" s="3" t="s">
         <v>515</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B227" s="3" t="s">
         <v>517</v>
       </c>
@@ -4916,7 +4918,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B228" s="3" t="s">
         <v>519</v>
       </c>
@@ -4924,7 +4926,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B229" s="3" t="s">
         <v>521</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B230" s="3" t="s">
         <v>523</v>
       </c>
@@ -4940,7 +4942,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="6" t="s">
         <v>525</v>
@@ -4950,7 +4952,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B232" s="3" t="s">
         <v>527</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B233" s="3" t="s">
         <v>529</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B234" s="3" t="s">
         <v>531</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B235" s="3" t="s">
         <v>533</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B236" s="3" t="s">
         <v>535</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B237" s="3" t="s">
         <v>226</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B238" s="3" t="s">
         <v>538</v>
       </c>
@@ -5006,7 +5008,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B239" s="3" t="s">
         <v>540</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B240" s="3" t="s">
         <v>159</v>
       </c>
@@ -5022,7 +5024,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="6" t="s">
         <v>543</v>
@@ -5032,7 +5034,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B242" s="3" t="s">
         <v>545</v>
       </c>
@@ -5040,7 +5042,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B243" s="3" t="s">
         <v>547</v>
       </c>
@@ -5048,7 +5050,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B244" s="3" t="s">
         <v>549</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B245" s="3" t="s">
         <v>551</v>
       </c>
@@ -5064,7 +5066,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B246" s="3" t="s">
         <v>553</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B247" s="3" t="s">
         <v>555</v>
       </c>
@@ -5080,7 +5082,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B248" s="3" t="s">
         <v>557</v>
       </c>
@@ -5088,7 +5090,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B249" s="3" t="s">
         <v>559</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>561</v>
       </c>
@@ -5104,7 +5106,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="6" t="s">
         <v>563</v>
@@ -5114,7 +5116,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B252" s="3" t="s">
         <v>565</v>
       </c>
@@ -5122,7 +5124,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B253" s="3" t="s">
         <v>567</v>
       </c>
@@ -5130,7 +5132,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B254" s="3" t="s">
         <v>569</v>
       </c>
@@ -5138,7 +5140,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B255" s="3" t="s">
         <v>571</v>
       </c>
@@ -5146,7 +5148,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B256" s="3" t="s">
         <v>573</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B257" s="3" t="s">
         <v>575</v>
       </c>
@@ -5162,7 +5164,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B258" s="3" t="s">
         <v>380</v>
       </c>
@@ -5170,7 +5172,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B259" s="3" t="s">
         <v>578</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B260" s="3" t="s">
         <v>580</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>582</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>585</v>
       </c>
@@ -5209,7 +5211,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B263" s="3" t="s">
         <v>588</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B264" s="3" t="s">
         <v>590</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B265" s="3" t="s">
         <v>592</v>
       </c>
@@ -5233,7 +5235,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B266" s="3" t="s">
         <v>594</v>
       </c>
@@ -5241,7 +5243,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B267" s="3" t="s">
         <v>596</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B268" s="3" t="s">
         <v>347</v>
       </c>
@@ -5257,7 +5259,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B269" s="3" t="s">
         <v>598</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B270" s="3" t="s">
         <v>600</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="6" t="s">
         <v>557</v>
@@ -5283,7 +5285,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B272" s="3" t="s">
         <v>603</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B273" s="3" t="s">
         <v>605</v>
       </c>
@@ -5299,7 +5301,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B274" s="3" t="s">
         <v>607</v>
       </c>
@@ -5307,7 +5309,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B275" s="3" t="s">
         <v>609</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B276" s="3" t="s">
         <v>611</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B277" s="3" t="s">
         <v>613</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B278" s="3" t="s">
         <v>368</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B279" s="3" t="s">
         <v>616</v>
       </c>
@@ -5347,7 +5349,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B280" s="3" t="s">
         <v>618</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="6" t="s">
         <v>620</v>
@@ -5365,7 +5367,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B282" s="3" t="s">
         <v>621</v>
       </c>
@@ -5373,7 +5375,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B283" s="3" t="s">
         <v>623</v>
       </c>
@@ -5381,7 +5383,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B284" s="3" t="s">
         <v>625</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B285" s="3" t="s">
         <v>627</v>
       </c>
@@ -5397,7 +5399,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B286" s="3" t="s">
         <v>629</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B287" s="3" t="s">
         <v>631</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B288" s="3" t="s">
         <v>633</v>
       </c>
@@ -5421,7 +5423,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B289" s="3" t="s">
         <v>635</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B290" s="3" t="s">
         <v>637</v>
       </c>
@@ -5437,7 +5439,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="6" t="s">
         <v>639</v>
@@ -5447,7 +5449,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B292" s="3" t="s">
         <v>641</v>
       </c>
@@ -5455,7 +5457,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B293" s="3" t="s">
         <v>643</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B294" s="3" t="s">
         <v>645</v>
       </c>
@@ -5471,7 +5473,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B295" s="3" t="s">
         <v>647</v>
       </c>
@@ -5479,7 +5481,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B296" s="3" t="s">
         <v>649</v>
       </c>
@@ -5487,7 +5489,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B297" s="3" t="s">
         <v>651</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B298" s="3" t="s">
         <v>200</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B299" s="17" t="s">
         <v>654</v>
       </c>
@@ -5513,7 +5515,7 @@
       </c>
       <c r="E299" s="17"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B300" s="3" t="s">
         <v>656</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="6" t="s">
         <v>658</v>
@@ -5531,7 +5533,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B302" s="3" t="s">
         <v>660</v>
       </c>
@@ -5539,7 +5541,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B303" s="3" t="s">
         <v>662</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B304" s="3" t="s">
         <v>664</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B305" s="3" t="s">
         <v>666</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B306" s="3" t="s">
         <v>668</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B307" s="3" t="s">
         <v>575</v>
       </c>
@@ -5579,7 +5581,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B308" s="3" t="s">
         <v>167</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B309" s="3" t="s">
         <v>671</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B310" s="3" t="s">
         <v>412</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B311" s="3" t="s">
         <v>673</v>
       </c>
@@ -5611,7 +5613,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="6" t="s">
         <v>675</v>
@@ -5619,7 +5621,7 @@
       <c r="C312" s="5"/>
       <c r="D312" s="7"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B313" s="3" t="s">
         <v>242</v>
       </c>
@@ -5627,7 +5629,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B314" s="3" t="s">
         <v>677</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B315" s="3" t="s">
         <v>679</v>
       </c>
@@ -5643,7 +5645,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B316" s="3" t="s">
         <v>681</v>
       </c>
@@ -5651,7 +5653,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B317" s="3" t="s">
         <v>683</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B318" s="3" t="s">
         <v>685</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B319" s="3" t="s">
         <v>687</v>
       </c>
@@ -5675,7 +5677,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B320" s="3" t="s">
         <v>689</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B321" s="3" t="s">
         <v>691</v>
       </c>
@@ -5691,7 +5693,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="6" t="s">
         <v>693</v>
@@ -5701,7 +5703,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B323" s="3" t="s">
         <v>695</v>
       </c>
@@ -5709,7 +5711,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B324" s="3" t="s">
         <v>697</v>
       </c>
@@ -5717,7 +5719,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B325" s="3" t="s">
         <v>699</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B326" s="3" t="s">
         <v>180</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B327" s="3" t="s">
         <v>701</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B328" s="3" t="s">
         <v>703</v>
       </c>
@@ -5749,7 +5751,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B329" s="3" t="s">
         <v>705</v>
       </c>
@@ -5757,7 +5759,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B330" s="3" t="s">
         <v>707</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B331" s="3" t="s">
         <v>327</v>
       </c>
@@ -5773,7 +5775,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="6" t="s">
         <v>710</v>
@@ -5783,7 +5785,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B333" s="3" t="s">
         <v>712</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B334" s="3" t="s">
         <v>714</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B335" s="3" t="s">
         <v>716</v>
       </c>
@@ -5807,7 +5809,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B336" s="3" t="s">
         <v>718</v>
       </c>
@@ -5815,7 +5817,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B337" s="3" t="s">
         <v>720</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B338" s="3" t="s">
         <v>236</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B339" s="3" t="s">
         <v>723</v>
       </c>
@@ -5839,7 +5841,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B340" s="3" t="s">
         <v>725</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B341" s="3" t="s">
         <v>727</v>
       </c>
@@ -5855,7 +5857,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="6" t="s">
         <v>729</v>
@@ -5865,7 +5867,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B343" s="3" t="s">
         <v>730</v>
       </c>
@@ -5873,7 +5875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B344" s="3" t="s">
         <v>731</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B345" s="3" t="s">
         <v>733</v>
       </c>
@@ -5889,7 +5891,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B346" s="3" t="s">
         <v>735</v>
       </c>
@@ -5897,7 +5899,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B347" s="3" t="s">
         <v>737</v>
       </c>
@@ -5905,7 +5907,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B348" s="3" t="s">
         <v>725</v>
       </c>
@@ -5913,7 +5915,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B349" s="3" t="s">
         <v>740</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B350" s="3" t="s">
         <v>742</v>
       </c>
@@ -5929,7 +5931,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B351" s="3" t="s">
         <v>730</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="6" t="s">
         <v>745</v>
@@ -5947,7 +5949,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B353" s="3" t="s">
         <v>747</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" s="3" t="s">
         <v>749</v>
       </c>
@@ -5967,4 +5969,16 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D13CB6-7689-3E46-878A-9EB17DDA99E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{2023FD4B-E641-5770-8AB2-5145C62B07EC}"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gari_Dictionary.xlsx
+++ b/Gari_Dictionary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gari\english\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="BF02BE698EBB6C950040CD02CF95C4236FD9DB74" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{70D37CE6-AF43-D245-AC01-3DCA4E3C6896}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE99A67-FAF2-498D-BEB9-1E2FE448AE65}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" tabRatio="596" activeTab="2" xr2:uid="{826C1F26-B24D-4D5C-879E-AB14CC9440BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" tabRatio="596" xr2:uid="{826C1F26-B24D-4D5C-879E-AB14CC9440BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="TFP" sheetId="1" r:id="rId1"/>
+    <sheet name="Grimm" sheetId="1" r:id="rId1"/>
     <sheet name="java_szavak" sheetId="4" r:id="rId2"/>
     <sheet name="Czobor-H" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="811">
   <si>
     <t>Thema</t>
   </si>
@@ -2280,13 +2280,193 @@
   </si>
   <si>
     <t>olyan tábla, amely biztosítja az egyedi kulcsot</t>
+  </si>
+  <si>
+    <t>Ramsay</t>
+  </si>
+  <si>
+    <t>They are watching a detective story in the television.</t>
+  </si>
+  <si>
+    <t>Mr Ramsay</t>
+  </si>
+  <si>
+    <t>The husband.</t>
+  </si>
+  <si>
+    <t>Mrs Ramsay</t>
+  </si>
+  <si>
+    <t>Mr Ramsay's wife</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>Ramsays' daughter</t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>Liz's brother</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>The victims</t>
+  </si>
+  <si>
+    <t>Mr Lee (Robert Lee)</t>
+  </si>
+  <si>
+    <t>an architect</t>
+  </si>
+  <si>
+    <t>Mrs Lee (Mary Lee)</t>
+  </si>
+  <si>
+    <t>Mr Lee's wife</t>
+  </si>
+  <si>
+    <t>Miss Lee (Kate Lee)</t>
+  </si>
+  <si>
+    <t>Their daughter</t>
+  </si>
+  <si>
+    <t>a typist</t>
+  </si>
+  <si>
+    <t>clever</t>
+  </si>
+  <si>
+    <t>Dick Lee</t>
+  </si>
+  <si>
+    <t>Their son</t>
+  </si>
+  <si>
+    <t>Gwen Cook</t>
+  </si>
+  <si>
+    <t>a salesgirl</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>Mr Lee's father</t>
+  </si>
+  <si>
+    <t>an engineer</t>
+  </si>
+  <si>
+    <t>Mr Blackett</t>
+  </si>
+  <si>
+    <t>Mrs Lee'a father</t>
+  </si>
+  <si>
+    <t>a bank manager</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>Denton Cottage</t>
+  </si>
+  <si>
+    <t>Their house.</t>
+  </si>
+  <si>
+    <t>Gangsters</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Gentleman Henry</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Sandwich Fred</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Alias Joe Brown the gardener.</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>Milligen</t>
+  </si>
+  <si>
+    <t>detective</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>dolgozószoba</t>
+  </si>
+  <si>
+    <t>be fond of sg</t>
+  </si>
+  <si>
+    <t>imádja a v-mit</t>
+  </si>
+  <si>
+    <t>Change your clothes!</t>
+  </si>
+  <si>
+    <t>Öltözz át!</t>
+  </si>
+  <si>
+    <t>Get out!</t>
+  </si>
+  <si>
+    <t>Kifelé!</t>
+  </si>
+  <si>
+    <t>Wrong.</t>
+  </si>
+  <si>
+    <t>Téves.</t>
+  </si>
+  <si>
+    <t>saucer</t>
+  </si>
+  <si>
+    <t>csészealj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2300,6 +2480,33 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2333,7 +2540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2387,6 +2594,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2705,30 +2922,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177E24E0-98C2-4919-A300-73D39A43ABCB}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{EF05D32A-BC43-532D-B687-DBB7F7C53227}">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="46.9453125" customWidth="1"/>
+    <col min="2" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +2961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2752,7 +2969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -2760,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -2768,7 +2985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -2776,7 +2993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -2784,7 +3001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -2792,7 +3009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -2800,7 +3017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -2808,7 +3025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -2816,7 +3033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -2824,7 +3041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -2832,7 +3049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -2840,7 +3057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -2848,7 +3065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -2856,7 +3073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -2864,7 +3081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -2872,7 +3089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -2880,7 +3097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -2888,7 +3105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>43</v>
       </c>
@@ -2896,7 +3113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -2904,7 +3121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -2912,7 +3129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>49</v>
       </c>
@@ -2920,7 +3137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>51</v>
       </c>
@@ -2928,7 +3145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>53</v>
       </c>
@@ -2936,7 +3153,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>55</v>
       </c>
@@ -2944,7 +3161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>57</v>
       </c>
@@ -2952,7 +3169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -2960,7 +3177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>61</v>
       </c>
@@ -2968,7 +3185,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>63</v>
       </c>
@@ -2976,7 +3193,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>65</v>
       </c>
@@ -2984,7 +3201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>67</v>
       </c>
@@ -3001,20 +3218,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2617292-11E8-4AEF-987F-F80B2AA7C89C}">
   <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0" xr3:uid="{D13DFA87-C192-5C37-B802-9DFCC40B469B}">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A343" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B354" sqref="B354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.9921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.8515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.15234375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.4453125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.14453125" style="2"/>
+    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>69</v>
       </c>
@@ -3033,7 +3250,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
@@ -3041,7 +3258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
@@ -3049,7 +3266,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
@@ -3057,7 +3274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>77</v>
       </c>
@@ -3065,7 +3282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
@@ -3073,7 +3290,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>81</v>
       </c>
@@ -3081,7 +3298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
@@ -3089,7 +3306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>85</v>
       </c>
@@ -3097,7 +3314,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>87</v>
@@ -3107,7 +3324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>89</v>
       </c>
@@ -3115,7 +3332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
@@ -3123,7 +3340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>92</v>
       </c>
@@ -3131,7 +3348,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>94</v>
       </c>
@@ -3139,7 +3356,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>96</v>
       </c>
@@ -3147,7 +3364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
@@ -3155,7 +3372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>100</v>
       </c>
@@ -3163,7 +3380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>101</v>
       </c>
@@ -3171,7 +3388,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>103</v>
       </c>
@@ -3179,7 +3396,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>105</v>
@@ -3189,7 +3406,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>107</v>
       </c>
@@ -3197,7 +3414,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>109</v>
       </c>
@@ -3205,7 +3422,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>111</v>
       </c>
@@ -3213,7 +3430,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>113</v>
       </c>
@@ -3221,7 +3438,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>115</v>
       </c>
@@ -3229,7 +3446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>117</v>
       </c>
@@ -3237,7 +3454,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>119</v>
       </c>
@@ -3245,7 +3462,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>121</v>
       </c>
@@ -3253,7 +3470,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>123</v>
       </c>
@@ -3261,7 +3478,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>125</v>
@@ -3271,7 +3488,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>127</v>
       </c>
@@ -3279,7 +3496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>129</v>
       </c>
@@ -3287,7 +3504,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>131</v>
       </c>
@@ -3295,7 +3512,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>133</v>
       </c>
@@ -3303,7 +3520,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>135</v>
       </c>
@@ -3311,7 +3528,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>137</v>
       </c>
@@ -3319,7 +3536,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>139</v>
       </c>
@@ -3327,7 +3544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>141</v>
       </c>
@@ -3335,7 +3552,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>143</v>
       </c>
@@ -3343,7 +3560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
         <v>145</v>
@@ -3353,7 +3570,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>147</v>
       </c>
@@ -3361,7 +3578,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>149</v>
       </c>
@@ -3369,7 +3586,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>151</v>
       </c>
@@ -3377,7 +3594,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>153</v>
       </c>
@@ -3385,7 +3602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>155</v>
       </c>
@@ -3393,7 +3610,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>157</v>
       </c>
@@ -3401,7 +3618,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>159</v>
       </c>
@@ -3409,7 +3626,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>161</v>
       </c>
@@ -3417,7 +3634,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>163</v>
       </c>
@@ -3425,7 +3642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
         <v>165</v>
@@ -3435,7 +3652,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>167</v>
       </c>
@@ -3443,7 +3660,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>169</v>
       </c>
@@ -3451,7 +3668,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>171</v>
       </c>
@@ -3459,7 +3676,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>173</v>
       </c>
@@ -3467,7 +3684,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>71</v>
       </c>
@@ -3475,7 +3692,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>176</v>
       </c>
@@ -3483,7 +3700,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>178</v>
       </c>
@@ -3491,7 +3708,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>180</v>
       </c>
@@ -3499,7 +3716,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>182</v>
       </c>
@@ -3507,7 +3724,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="11" t="s">
         <v>184</v>
@@ -3517,7 +3734,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>186</v>
       </c>
@@ -3526,7 +3743,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>188</v>
       </c>
@@ -3535,7 +3752,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>190</v>
       </c>
@@ -3544,7 +3761,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>73</v>
       </c>
@@ -3553,7 +3770,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>193</v>
       </c>
@@ -3562,7 +3779,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>195</v>
       </c>
@@ -3571,7 +3788,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>197</v>
       </c>
@@ -3580,7 +3797,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>198</v>
       </c>
@@ -3589,7 +3806,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>200</v>
       </c>
@@ -3598,7 +3815,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="11" t="s">
         <v>202</v>
@@ -3608,7 +3825,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>125</v>
       </c>
@@ -3617,7 +3834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>205</v>
       </c>
@@ -3626,7 +3843,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>207</v>
       </c>
@@ -3635,7 +3852,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
         <v>209</v>
       </c>
@@ -3644,7 +3861,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>211</v>
       </c>
@@ -3653,7 +3870,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
         <v>213</v>
       </c>
@@ -3662,7 +3879,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>215</v>
       </c>
@@ -3674,7 +3891,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>218</v>
       </c>
@@ -3683,7 +3900,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
         <v>220</v>
       </c>
@@ -3692,7 +3909,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="6" t="s">
         <v>222</v>
@@ -3702,7 +3919,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>224</v>
       </c>
@@ -3710,7 +3927,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>226</v>
       </c>
@@ -3718,7 +3935,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>228</v>
       </c>
@@ -3726,7 +3943,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>230</v>
       </c>
@@ -3734,7 +3951,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>232</v>
       </c>
@@ -3742,7 +3959,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>234</v>
       </c>
@@ -3750,7 +3967,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>236</v>
       </c>
@@ -3758,7 +3975,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>238</v>
       </c>
@@ -3766,7 +3983,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>240</v>
       </c>
@@ -3774,7 +3991,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6" t="s">
         <v>242</v>
@@ -3784,7 +4001,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>244</v>
       </c>
@@ -3792,7 +4009,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>246</v>
       </c>
@@ -3800,7 +4017,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>248</v>
       </c>
@@ -3808,7 +4025,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>250</v>
       </c>
@@ -3816,7 +4033,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>252</v>
       </c>
@@ -3824,7 +4041,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>254</v>
       </c>
@@ -3832,7 +4049,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>256</v>
       </c>
@@ -3840,7 +4057,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>258</v>
       </c>
@@ -3848,7 +4065,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>260</v>
       </c>
@@ -3856,7 +4073,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="9" t="s">
         <v>262</v>
@@ -3866,7 +4083,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>264</v>
       </c>
@@ -3874,7 +4091,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>266</v>
       </c>
@@ -3882,7 +4099,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
         <v>268</v>
       </c>
@@ -3890,7 +4107,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>270</v>
       </c>
@@ -3898,7 +4115,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>272</v>
       </c>
@@ -3906,7 +4123,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
         <v>274</v>
       </c>
@@ -3914,7 +4131,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
         <v>276</v>
       </c>
@@ -3922,7 +4139,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>278</v>
       </c>
@@ -3930,7 +4147,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
         <v>280</v>
       </c>
@@ -3938,7 +4155,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="6" t="s">
         <v>282</v>
@@ -3948,7 +4165,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>284</v>
       </c>
@@ -3956,7 +4173,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
         <v>286</v>
       </c>
@@ -3964,7 +4181,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>288</v>
       </c>
@@ -3972,7 +4189,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
         <v>290</v>
       </c>
@@ -3980,7 +4197,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
         <v>292</v>
       </c>
@@ -3988,7 +4205,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
         <v>294</v>
       </c>
@@ -3996,7 +4213,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
         <v>296</v>
       </c>
@@ -4004,7 +4221,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
         <v>298</v>
       </c>
@@ -4012,7 +4229,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
         <v>300</v>
       </c>
@@ -4020,7 +4237,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="6" t="s">
         <v>302</v>
@@ -4030,7 +4247,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
         <v>304</v>
       </c>
@@ -4038,7 +4255,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
         <v>306</v>
       </c>
@@ -4046,7 +4263,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>308</v>
       </c>
@@ -4054,7 +4271,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
         <v>310</v>
       </c>
@@ -4062,7 +4279,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
         <v>312</v>
       </c>
@@ -4070,7 +4287,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
         <v>314</v>
       </c>
@@ -4078,7 +4295,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
         <v>316</v>
       </c>
@@ -4086,7 +4303,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
         <v>198</v>
       </c>
@@ -4094,7 +4311,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
         <v>319</v>
       </c>
@@ -4102,7 +4319,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="6" t="s">
         <v>321</v>
@@ -4112,7 +4329,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
         <v>323</v>
       </c>
@@ -4120,7 +4337,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
         <v>325</v>
       </c>
@@ -4128,7 +4345,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
         <v>327</v>
       </c>
@@ -4136,7 +4353,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
         <v>329</v>
       </c>
@@ -4144,7 +4361,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
         <v>331</v>
       </c>
@@ -4152,7 +4369,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
         <v>333</v>
       </c>
@@ -4160,7 +4377,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
         <v>335</v>
       </c>
@@ -4168,7 +4385,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
         <v>337</v>
       </c>
@@ -4176,7 +4393,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
         <v>339</v>
       </c>
@@ -4184,7 +4401,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="6" t="s">
         <v>341</v>
@@ -4194,7 +4411,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
         <v>343</v>
       </c>
@@ -4202,7 +4419,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
         <v>345</v>
       </c>
@@ -4210,7 +4427,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
         <v>347</v>
       </c>
@@ -4218,7 +4435,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
         <v>349</v>
       </c>
@@ -4226,7 +4443,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" s="3" t="s">
         <v>351</v>
       </c>
@@ -4234,7 +4451,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>353</v>
       </c>
@@ -4242,7 +4459,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
         <v>355</v>
       </c>
@@ -4250,7 +4467,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
         <v>308</v>
       </c>
@@ -4258,7 +4475,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
         <v>358</v>
       </c>
@@ -4266,7 +4483,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="6" t="s">
         <v>360</v>
@@ -4276,7 +4493,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
         <v>362</v>
       </c>
@@ -4284,7 +4501,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
         <v>364</v>
       </c>
@@ -4292,7 +4509,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
         <v>366</v>
       </c>
@@ -4300,7 +4517,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="3" t="s">
         <v>368</v>
       </c>
@@ -4308,7 +4525,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
         <v>370</v>
       </c>
@@ -4316,7 +4533,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
         <v>372</v>
       </c>
@@ -4324,7 +4541,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
         <v>374</v>
       </c>
@@ -4332,7 +4549,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
         <v>376</v>
       </c>
@@ -4340,7 +4557,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" s="3" t="s">
         <v>378</v>
       </c>
@@ -4348,7 +4565,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="6" t="s">
         <v>380</v>
@@ -4358,7 +4575,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
         <v>382</v>
       </c>
@@ -4366,7 +4583,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B163" s="3" t="s">
         <v>384</v>
       </c>
@@ -4374,7 +4591,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" s="3" t="s">
         <v>386</v>
       </c>
@@ -4382,7 +4599,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" s="3" t="s">
         <v>388</v>
       </c>
@@ -4390,7 +4607,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
         <v>390</v>
       </c>
@@ -4398,7 +4615,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" s="3" t="s">
         <v>392</v>
       </c>
@@ -4406,7 +4623,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="3" t="s">
         <v>394</v>
       </c>
@@ -4414,7 +4631,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" s="3" t="s">
         <v>396</v>
       </c>
@@ -4422,7 +4639,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B170" s="3" t="s">
         <v>398</v>
       </c>
@@ -4430,7 +4647,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="6" t="s">
         <v>400</v>
@@ -4440,7 +4657,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" s="3" t="s">
         <v>402</v>
       </c>
@@ -4448,7 +4665,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
         <v>404</v>
       </c>
@@ -4456,7 +4673,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" s="3" t="s">
         <v>406</v>
       </c>
@@ -4464,7 +4681,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B175" s="3" t="s">
         <v>408</v>
       </c>
@@ -4472,7 +4689,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" s="3" t="s">
         <v>410</v>
       </c>
@@ -4480,7 +4697,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B177" s="3" t="s">
         <v>412</v>
       </c>
@@ -4488,7 +4705,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B178" s="3" t="s">
         <v>414</v>
       </c>
@@ -4496,7 +4713,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B179" s="3" t="s">
         <v>416</v>
       </c>
@@ -4504,7 +4721,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B180" s="3" t="s">
         <v>418</v>
       </c>
@@ -4512,7 +4729,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="6" t="s">
         <v>420</v>
@@ -4522,7 +4739,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
         <v>422</v>
       </c>
@@ -4530,7 +4747,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>424</v>
       </c>
@@ -4541,7 +4758,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>427</v>
       </c>
@@ -4552,7 +4769,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B185" s="3" t="s">
         <v>430</v>
       </c>
@@ -4560,7 +4777,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B186" s="3" t="s">
         <v>432</v>
       </c>
@@ -4568,7 +4785,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B187" s="3" t="s">
         <v>434</v>
       </c>
@@ -4576,7 +4793,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>436</v>
       </c>
@@ -4587,7 +4804,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B189" s="3" t="s">
         <v>439</v>
       </c>
@@ -4595,7 +4812,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B190" s="3" t="s">
         <v>441</v>
       </c>
@@ -4603,7 +4820,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>443</v>
       </c>
@@ -4615,7 +4832,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
         <v>446</v>
       </c>
@@ -4623,7 +4840,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B193" s="3" t="s">
         <v>448</v>
       </c>
@@ -4631,7 +4848,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>450</v>
       </c>
@@ -4642,7 +4859,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" s="3" t="s">
         <v>453</v>
       </c>
@@ -4650,7 +4867,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
         <v>455</v>
       </c>
@@ -4658,7 +4875,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
         <v>457</v>
       </c>
@@ -4666,7 +4883,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
         <v>459</v>
       </c>
@@ -4674,7 +4891,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
         <v>461</v>
       </c>
@@ -4682,7 +4899,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>463</v>
       </c>
@@ -4693,7 +4910,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="6" t="s">
         <v>466</v>
@@ -4703,7 +4920,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
         <v>468</v>
       </c>
@@ -4711,7 +4928,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" s="3" t="s">
         <v>469</v>
       </c>
@@ -4719,7 +4936,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" s="3" t="s">
         <v>471</v>
       </c>
@@ -4727,7 +4944,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" s="3" t="s">
         <v>473</v>
       </c>
@@ -4735,7 +4952,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B206" s="3" t="s">
         <v>475</v>
       </c>
@@ -4743,7 +4960,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" s="3" t="s">
         <v>477</v>
       </c>
@@ -4751,7 +4968,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
         <v>479</v>
       </c>
@@ -4759,7 +4976,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
         <v>481</v>
       </c>
@@ -4767,7 +4984,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>483</v>
       </c>
@@ -4778,7 +4995,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="6" t="s">
         <v>486</v>
@@ -4788,7 +5005,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
         <v>488</v>
       </c>
@@ -4796,7 +5013,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
         <v>490</v>
       </c>
@@ -4804,7 +5021,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
         <v>492</v>
       </c>
@@ -4812,7 +5029,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
         <v>494</v>
       </c>
@@ -4820,7 +5037,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
         <v>496</v>
       </c>
@@ -4828,7 +5045,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
         <v>497</v>
       </c>
@@ -4836,7 +5053,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
         <v>499</v>
       </c>
@@ -4844,7 +5061,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
         <v>501</v>
       </c>
@@ -4852,7 +5069,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
         <v>503</v>
       </c>
@@ -4860,7 +5077,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="6" t="s">
         <v>505</v>
@@ -4870,7 +5087,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B222" s="3" t="s">
         <v>507</v>
       </c>
@@ -4878,7 +5095,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B223" s="3" t="s">
         <v>509</v>
       </c>
@@ -4886,7 +5103,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B224" s="3" t="s">
         <v>511</v>
       </c>
@@ -4894,7 +5111,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" s="3" t="s">
         <v>513</v>
       </c>
@@ -4902,7 +5119,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B226" s="3" t="s">
         <v>515</v>
       </c>
@@ -4910,7 +5127,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B227" s="3" t="s">
         <v>517</v>
       </c>
@@ -4918,7 +5135,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" s="3" t="s">
         <v>519</v>
       </c>
@@ -4926,7 +5143,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B229" s="3" t="s">
         <v>521</v>
       </c>
@@ -4934,7 +5151,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B230" s="3" t="s">
         <v>523</v>
       </c>
@@ -4942,7 +5159,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="6" t="s">
         <v>525</v>
@@ -4952,7 +5169,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B232" s="3" t="s">
         <v>527</v>
       </c>
@@ -4960,7 +5177,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
         <v>529</v>
       </c>
@@ -4968,7 +5185,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B234" s="3" t="s">
         <v>531</v>
       </c>
@@ -4976,7 +5193,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
         <v>533</v>
       </c>
@@ -4984,7 +5201,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B236" s="3" t="s">
         <v>535</v>
       </c>
@@ -4992,7 +5209,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
         <v>226</v>
       </c>
@@ -5000,7 +5217,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B238" s="3" t="s">
         <v>538</v>
       </c>
@@ -5008,7 +5225,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B239" s="3" t="s">
         <v>540</v>
       </c>
@@ -5016,7 +5233,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
         <v>159</v>
       </c>
@@ -5024,7 +5241,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="6" t="s">
         <v>543</v>
@@ -5034,7 +5251,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B242" s="3" t="s">
         <v>545</v>
       </c>
@@ -5042,7 +5259,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
         <v>547</v>
       </c>
@@ -5050,7 +5267,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B244" s="3" t="s">
         <v>549</v>
       </c>
@@ -5058,7 +5275,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B245" s="3" t="s">
         <v>551</v>
       </c>
@@ -5066,7 +5283,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B246" s="3" t="s">
         <v>553</v>
       </c>
@@ -5074,7 +5291,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B247" s="3" t="s">
         <v>555</v>
       </c>
@@ -5082,7 +5299,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B248" s="3" t="s">
         <v>557</v>
       </c>
@@ -5090,7 +5307,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B249" s="3" t="s">
         <v>559</v>
       </c>
@@ -5098,7 +5315,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>561</v>
       </c>
@@ -5106,7 +5323,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
       <c r="B251" s="6" t="s">
         <v>563</v>
@@ -5116,7 +5333,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B252" s="3" t="s">
         <v>565</v>
       </c>
@@ -5124,7 +5341,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B253" s="3" t="s">
         <v>567</v>
       </c>
@@ -5132,7 +5349,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
         <v>569</v>
       </c>
@@ -5140,7 +5357,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B255" s="3" t="s">
         <v>571</v>
       </c>
@@ -5148,7 +5365,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B256" s="3" t="s">
         <v>573</v>
       </c>
@@ -5156,7 +5373,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B257" s="3" t="s">
         <v>575</v>
       </c>
@@ -5164,7 +5381,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B258" s="3" t="s">
         <v>380</v>
       </c>
@@ -5172,7 +5389,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B259" s="3" t="s">
         <v>578</v>
       </c>
@@ -5180,7 +5397,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B260" s="3" t="s">
         <v>580</v>
       </c>
@@ -5188,7 +5405,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>582</v>
       </c>
@@ -5200,7 +5417,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>585</v>
       </c>
@@ -5211,7 +5428,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B263" s="3" t="s">
         <v>588</v>
       </c>
@@ -5219,7 +5436,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B264" s="3" t="s">
         <v>590</v>
       </c>
@@ -5227,7 +5444,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B265" s="3" t="s">
         <v>592</v>
       </c>
@@ -5235,7 +5452,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B266" s="3" t="s">
         <v>594</v>
       </c>
@@ -5243,7 +5460,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B267" s="3" t="s">
         <v>596</v>
       </c>
@@ -5251,7 +5468,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B268" s="3" t="s">
         <v>347</v>
       </c>
@@ -5259,7 +5476,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B269" s="3" t="s">
         <v>598</v>
       </c>
@@ -5267,7 +5484,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B270" s="3" t="s">
         <v>600</v>
       </c>
@@ -5275,7 +5492,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
       <c r="B271" s="6" t="s">
         <v>557</v>
@@ -5285,7 +5502,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B272" s="3" t="s">
         <v>603</v>
       </c>
@@ -5293,7 +5510,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B273" s="3" t="s">
         <v>605</v>
       </c>
@@ -5301,7 +5518,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B274" s="3" t="s">
         <v>607</v>
       </c>
@@ -5309,7 +5526,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B275" s="3" t="s">
         <v>609</v>
       </c>
@@ -5317,7 +5534,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B276" s="3" t="s">
         <v>611</v>
       </c>
@@ -5325,7 +5542,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B277" s="3" t="s">
         <v>613</v>
       </c>
@@ -5333,7 +5550,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B278" s="3" t="s">
         <v>368</v>
       </c>
@@ -5341,7 +5558,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B279" s="3" t="s">
         <v>616</v>
       </c>
@@ -5349,7 +5566,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B280" s="3" t="s">
         <v>618</v>
       </c>
@@ -5357,7 +5574,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
       <c r="B281" s="6" t="s">
         <v>620</v>
@@ -5367,7 +5584,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B282" s="3" t="s">
         <v>621</v>
       </c>
@@ -5375,7 +5592,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B283" s="3" t="s">
         <v>623</v>
       </c>
@@ -5383,7 +5600,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B284" s="3" t="s">
         <v>625</v>
       </c>
@@ -5391,7 +5608,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B285" s="3" t="s">
         <v>627</v>
       </c>
@@ -5399,7 +5616,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B286" s="3" t="s">
         <v>629</v>
       </c>
@@ -5407,7 +5624,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B287" s="3" t="s">
         <v>631</v>
       </c>
@@ -5415,7 +5632,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B288" s="3" t="s">
         <v>633</v>
       </c>
@@ -5423,7 +5640,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B289" s="3" t="s">
         <v>635</v>
       </c>
@@ -5431,7 +5648,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B290" s="3" t="s">
         <v>637</v>
       </c>
@@ -5439,7 +5656,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
       <c r="B291" s="6" t="s">
         <v>639</v>
@@ -5449,7 +5666,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B292" s="3" t="s">
         <v>641</v>
       </c>
@@ -5457,7 +5674,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B293" s="3" t="s">
         <v>643</v>
       </c>
@@ -5465,7 +5682,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B294" s="3" t="s">
         <v>645</v>
       </c>
@@ -5473,7 +5690,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B295" s="3" t="s">
         <v>647</v>
       </c>
@@ -5481,7 +5698,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B296" s="3" t="s">
         <v>649</v>
       </c>
@@ -5489,7 +5706,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B297" s="3" t="s">
         <v>651</v>
       </c>
@@ -5497,7 +5714,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B298" s="3" t="s">
         <v>200</v>
       </c>
@@ -5505,7 +5722,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B299" s="17" t="s">
         <v>654</v>
       </c>
@@ -5515,7 +5732,7 @@
       </c>
       <c r="E299" s="17"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B300" s="3" t="s">
         <v>656</v>
       </c>
@@ -5523,7 +5740,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
       <c r="B301" s="6" t="s">
         <v>658</v>
@@ -5533,7 +5750,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B302" s="3" t="s">
         <v>660</v>
       </c>
@@ -5541,7 +5758,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B303" s="3" t="s">
         <v>662</v>
       </c>
@@ -5549,7 +5766,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B304" s="3" t="s">
         <v>664</v>
       </c>
@@ -5557,7 +5774,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B305" s="3" t="s">
         <v>666</v>
       </c>
@@ -5565,7 +5782,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B306" s="3" t="s">
         <v>668</v>
       </c>
@@ -5573,7 +5790,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B307" s="3" t="s">
         <v>575</v>
       </c>
@@ -5581,7 +5798,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B308" s="3" t="s">
         <v>167</v>
       </c>
@@ -5589,7 +5806,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B309" s="3" t="s">
         <v>671</v>
       </c>
@@ -5597,7 +5814,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B310" s="3" t="s">
         <v>412</v>
       </c>
@@ -5605,7 +5822,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B311" s="3" t="s">
         <v>673</v>
       </c>
@@ -5613,7 +5830,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="6" t="s">
         <v>675</v>
@@ -5621,7 +5838,7 @@
       <c r="C312" s="5"/>
       <c r="D312" s="7"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B313" s="3" t="s">
         <v>242</v>
       </c>
@@ -5629,7 +5846,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B314" s="3" t="s">
         <v>677</v>
       </c>
@@ -5637,7 +5854,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B315" s="3" t="s">
         <v>679</v>
       </c>
@@ -5645,7 +5862,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B316" s="3" t="s">
         <v>681</v>
       </c>
@@ -5653,7 +5870,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
         <v>683</v>
       </c>
@@ -5661,7 +5878,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B318" s="3" t="s">
         <v>685</v>
       </c>
@@ -5669,7 +5886,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B319" s="3" t="s">
         <v>687</v>
       </c>
@@ -5677,7 +5894,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B320" s="3" t="s">
         <v>689</v>
       </c>
@@ -5685,7 +5902,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B321" s="3" t="s">
         <v>691</v>
       </c>
@@ -5693,7 +5910,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="5"/>
       <c r="B322" s="6" t="s">
         <v>693</v>
@@ -5703,7 +5920,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B323" s="3" t="s">
         <v>695</v>
       </c>
@@ -5711,7 +5928,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B324" s="3" t="s">
         <v>697</v>
       </c>
@@ -5719,7 +5936,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B325" s="3" t="s">
         <v>699</v>
       </c>
@@ -5727,7 +5944,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B326" s="3" t="s">
         <v>180</v>
       </c>
@@ -5735,7 +5952,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B327" s="3" t="s">
         <v>701</v>
       </c>
@@ -5743,7 +5960,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B328" s="3" t="s">
         <v>703</v>
       </c>
@@ -5751,7 +5968,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B329" s="3" t="s">
         <v>705</v>
       </c>
@@ -5759,7 +5976,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B330" s="3" t="s">
         <v>707</v>
       </c>
@@ -5767,7 +5984,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B331" s="3" t="s">
         <v>327</v>
       </c>
@@ -5775,7 +5992,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="6" t="s">
         <v>710</v>
@@ -5785,7 +6002,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B333" s="3" t="s">
         <v>712</v>
       </c>
@@ -5793,7 +6010,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B334" s="3" t="s">
         <v>714</v>
       </c>
@@ -5801,7 +6018,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B335" s="3" t="s">
         <v>716</v>
       </c>
@@ -5809,7 +6026,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B336" s="3" t="s">
         <v>718</v>
       </c>
@@ -5817,7 +6034,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B337" s="3" t="s">
         <v>720</v>
       </c>
@@ -5825,7 +6042,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B338" s="3" t="s">
         <v>236</v>
       </c>
@@ -5833,7 +6050,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B339" s="3" t="s">
         <v>723</v>
       </c>
@@ -5841,7 +6058,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B340" s="3" t="s">
         <v>725</v>
       </c>
@@ -5849,7 +6066,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B341" s="3" t="s">
         <v>727</v>
       </c>
@@ -5857,7 +6074,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="6" t="s">
         <v>729</v>
@@ -5867,7 +6084,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B343" s="3" t="s">
         <v>730</v>
       </c>
@@ -5875,7 +6092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B344" s="3" t="s">
         <v>731</v>
       </c>
@@ -5883,7 +6100,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B345" s="3" t="s">
         <v>733</v>
       </c>
@@ -5891,7 +6108,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B346" s="3" t="s">
         <v>735</v>
       </c>
@@ -5899,7 +6116,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B347" s="3" t="s">
         <v>737</v>
       </c>
@@ -5907,7 +6124,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B348" s="3" t="s">
         <v>725</v>
       </c>
@@ -5915,7 +6132,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B349" s="3" t="s">
         <v>740</v>
       </c>
@@ -5923,7 +6140,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B350" s="3" t="s">
         <v>742</v>
       </c>
@@ -5931,7 +6148,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B351" s="3" t="s">
         <v>730</v>
       </c>
@@ -5939,7 +6156,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="5"/>
       <c r="B352" s="6" t="s">
         <v>745</v>
@@ -5949,7 +6166,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="3" t="s">
         <v>747</v>
       </c>
@@ -5957,7 +6174,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="3" t="s">
         <v>749</v>
       </c>
@@ -5973,12 +6190,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D13CB6-7689-3E46-878A-9EB17DDA99E0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{2023FD4B-E641-5770-8AB2-5145C62B07EC}"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>763</v>
+      </c>
+      <c r="D12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>765</v>
+      </c>
+      <c r="C13" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C14" t="s">
+        <v>768</v>
+      </c>
+      <c r="D14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C15" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D16" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E17" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>777</v>
+      </c>
+      <c r="C18" t="s">
+        <v>778</v>
+      </c>
+      <c r="D18" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>780</v>
+      </c>
+      <c r="C19" t="s">
+        <v>781</v>
+      </c>
+      <c r="D19" t="s">
+        <v>782</v>
+      </c>
+      <c r="E19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>784</v>
+      </c>
+      <c r="C20" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>787</v>
+      </c>
+      <c r="C24" t="s">
+        <v>788</v>
+      </c>
+      <c r="D24" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>790</v>
+      </c>
+      <c r="D25" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>793</v>
+      </c>
+      <c r="C27" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>796</v>
+      </c>
+      <c r="C31" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>799</v>
+      </c>
+      <c r="C36" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>801</v>
+      </c>
+      <c r="C37" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>803</v>
+      </c>
+      <c r="C38" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>805</v>
+      </c>
+      <c r="C39" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>807</v>
+      </c>
+      <c r="C40" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>809</v>
+      </c>
+      <c r="C41" t="s">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>